--- a/InputFiles/TC04_CDS_Filter_Gender-NotSpecifiedinData.xlsx
+++ b/InputFiles/TC04_CDS_Filter_Gender-NotSpecifiedinData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation 0707\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7399F5-1D29-4F99-9C22-2DCF1741F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD462F0-E712-4F2F-9210-F39F55F4EBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -197,8 +197,8 @@
     coalesce(f.file_name, '') as `File Name`,
     coalesce(s.study_name,'') as `Study Name`,
     coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.participant_id, 'Not specified in data') as `Participant ID`,
-    coalesce(samp.sample_id, 'Not specified in data') as `Sample ID`,
+    coalesce(p.participant_id, '') as `Participant ID`,
+    coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(f.file_type, '') as `File Type`
 ORDER BY f.file_name limit 100</t>
   </si>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
